--- a/2_MODELLING/TABLE 3 commune aux deux modèles.xlsx
+++ b/2_MODELLING/TABLE 3 commune aux deux modèles.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zgcha\FTD\Applied data science\2_MODELLING\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E86B7D3-DB9F-4966-9854-81FE88D665DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Model</t>
   </si>
@@ -68,13 +62,16 @@
   </si>
   <si>
     <t>(4)</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,21 +134,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -189,7 +178,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -223,7 +212,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -258,10 +246,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -434,167 +421,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>0.11600000000000001</v>
-      </c>
       <c r="C2">
+        <v>0.116</v>
+      </c>
+      <c r="D2">
         <v>-1.5282</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>2.9999999999999997E-4</v>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="I2">
-        <v>-9.7199999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.5000000000000001E-2</v>
+        <v>-0.09719999999999999</v>
       </c>
       <c r="K2">
-        <v>1.4852000000000001</v>
+        <v>0.025</v>
       </c>
       <c r="L2">
-        <v>1.6E-2</v>
+        <v>1.4852</v>
+      </c>
+      <c r="M2">
+        <v>0.016</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>0.27800000000000002</v>
-      </c>
       <c r="C3">
-        <v>-7.4333999999999998</v>
+        <v>0.278</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>-7.4334</v>
       </c>
       <c r="E3">
-        <v>0.70409999999999995</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.7040999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>0.3</v>
       </c>
-      <c r="C4">
-        <v>-6.8601000000000001</v>
-      </c>
       <c r="D4">
-        <v>0</v>
+        <v>-6.8601</v>
       </c>
       <c r="E4">
-        <v>0.63180000000000003</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.6318</v>
       </c>
       <c r="G4">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2E-3</v>
-      </c>
-      <c r="K4">
-        <v>9.1200000000000003E-2</v>
+        <v>0.0002</v>
+      </c>
+      <c r="I4">
+        <v>0.002</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
       </c>
       <c r="L4">
-        <v>0.84799999999999998</v>
+        <v>0.0912</v>
+      </c>
+      <c r="M4">
+        <v>0.848</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>0.11600000000000001</v>
-      </c>
       <c r="C5">
+        <v>0.116</v>
+      </c>
+      <c r="D5">
         <v>-1.5282</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>2.9999999999999997E-4</v>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="I5">
-        <v>-9.7199999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>2.5000000000000001E-2</v>
+        <v>-0.09719999999999999</v>
       </c>
       <c r="K5">
-        <v>1.4852000000000001</v>
+        <v>0.025</v>
       </c>
       <c r="L5">
-        <v>1.6E-2</v>
+        <v>1.4852</v>
+      </c>
+      <c r="M5">
+        <v>0.016</v>
       </c>
     </row>
   </sheetData>
